--- a/filters/AMP-PRO_Spectral-JB.xlsx
+++ b/filters/AMP-PRO_Spectral-JB.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colorlab\OneDrive\Desktop\Truc\contrast-filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhtruc/Desktop/Hyperspectral work/contrast-filter/filters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7EFC52-38A2-4A61-BDDA-9B32B44BC53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEEC865-E51B-314C-A355-144554AB3F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="38400" windowHeight="11470" xr2:uid="{952ED1EA-50E8-48C0-BD5A-25C5CCA3783C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{952ED1EA-50E8-48C0-BD5A-25C5CCA3783C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -168,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,6 +181,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,7 +265,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -299,10 +303,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$82</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -539,10 +543,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$82</c:f>
+              <c:f>Sheet1!$B$2:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0.4128</c:v>
                 </c:pt>
@@ -781,6 +785,519 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-166E-4BE8-A5C7-D1F85280CCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral density filters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60.781999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4720-1246-8B78-B955A6580A34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -837,7 +1354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="845051056"/>
@@ -896,7 +1413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="269150832"/>
@@ -937,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1545,6 +2062,646 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>AMP PRO</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>400</v>
+          </cell>
+          <cell r="B2">
+            <v>0.4128</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>405</v>
+          </cell>
+          <cell r="B3">
+            <v>5.1928999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>410</v>
+          </cell>
+          <cell r="B4">
+            <v>20.170999999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>415</v>
+          </cell>
+          <cell r="B5">
+            <v>38.616999999999997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>420</v>
+          </cell>
+          <cell r="B6">
+            <v>50.930999999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>425</v>
+          </cell>
+          <cell r="B7">
+            <v>55.91</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>430</v>
+          </cell>
+          <cell r="B8">
+            <v>56.478000000000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>435</v>
+          </cell>
+          <cell r="B9">
+            <v>55.316000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>440</v>
+          </cell>
+          <cell r="B10">
+            <v>53.405999999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>445</v>
+          </cell>
+          <cell r="B11">
+            <v>51.122</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>450</v>
+          </cell>
+          <cell r="B12">
+            <v>48.698</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>455</v>
+          </cell>
+          <cell r="B13">
+            <v>45.997999999999998</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>460</v>
+          </cell>
+          <cell r="B14">
+            <v>43.695</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>465</v>
+          </cell>
+          <cell r="B15">
+            <v>42.271000000000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>470</v>
+          </cell>
+          <cell r="B16">
+            <v>40.747</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>475</v>
+          </cell>
+          <cell r="B17">
+            <v>39.286999999999999</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>480</v>
+          </cell>
+          <cell r="B18">
+            <v>37.933999999999997</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>485</v>
+          </cell>
+          <cell r="B19">
+            <v>36.119999999999997</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>490</v>
+          </cell>
+          <cell r="B20">
+            <v>35.228000000000002</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>495</v>
+          </cell>
+          <cell r="B21">
+            <v>36.412999999999997</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>500</v>
+          </cell>
+          <cell r="B22">
+            <v>39.118000000000002</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>505</v>
+          </cell>
+          <cell r="B23">
+            <v>42.603999999999999</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>510</v>
+          </cell>
+          <cell r="B24">
+            <v>48.084000000000003</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>515</v>
+          </cell>
+          <cell r="B25">
+            <v>52.872</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>520</v>
+          </cell>
+          <cell r="B26">
+            <v>55.121000000000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>525</v>
+          </cell>
+          <cell r="B27">
+            <v>59.768000000000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>530</v>
+          </cell>
+          <cell r="B28">
+            <v>67.215999999999994</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>535</v>
+          </cell>
+          <cell r="B29">
+            <v>73.757000000000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>540</v>
+          </cell>
+          <cell r="B30">
+            <v>77.153999999999996</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>545</v>
+          </cell>
+          <cell r="B31">
+            <v>76.304000000000002</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>550</v>
+          </cell>
+          <cell r="B32">
+            <v>73.037000000000006</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>555</v>
+          </cell>
+          <cell r="B33">
+            <v>72.331999999999994</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>560</v>
+          </cell>
+          <cell r="B34">
+            <v>73.100999999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>565</v>
+          </cell>
+          <cell r="B35">
+            <v>73.186000000000007</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>570</v>
+          </cell>
+          <cell r="B36">
+            <v>72.436999999999998</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>575</v>
+          </cell>
+          <cell r="B37">
+            <v>71.126999999999995</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>580</v>
+          </cell>
+          <cell r="B38">
+            <v>69.697000000000003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>585</v>
+          </cell>
+          <cell r="B39">
+            <v>67.388000000000005</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>590</v>
+          </cell>
+          <cell r="B40">
+            <v>59.975000000000001</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>595</v>
+          </cell>
+          <cell r="B41">
+            <v>44.554000000000002</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>600</v>
+          </cell>
+          <cell r="B42">
+            <v>28.678000000000001</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>605</v>
+          </cell>
+          <cell r="B43">
+            <v>23.03</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>610</v>
+          </cell>
+          <cell r="B44">
+            <v>30.329000000000001</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>615</v>
+          </cell>
+          <cell r="B45">
+            <v>46.938000000000002</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>620</v>
+          </cell>
+          <cell r="B46">
+            <v>61.834000000000003</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>625</v>
+          </cell>
+          <cell r="B47">
+            <v>70.441999999999993</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>630</v>
+          </cell>
+          <cell r="B48">
+            <v>74.179000000000002</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>635</v>
+          </cell>
+          <cell r="B49">
+            <v>74.975999999999999</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>640</v>
+          </cell>
+          <cell r="B50">
+            <v>74.016000000000005</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>645</v>
+          </cell>
+          <cell r="B51">
+            <v>73.328000000000003</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>650</v>
+          </cell>
+          <cell r="B52">
+            <v>73.477000000000004</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>655</v>
+          </cell>
+          <cell r="B53">
+            <v>72.072999999999993</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>660</v>
+          </cell>
+          <cell r="B54">
+            <v>66.082999999999998</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>665</v>
+          </cell>
+          <cell r="B55">
+            <v>53.363999999999997</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>670</v>
+          </cell>
+          <cell r="B56">
+            <v>38.698</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>675</v>
+          </cell>
+          <cell r="B57">
+            <v>32.146999999999998</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>680</v>
+          </cell>
+          <cell r="B58">
+            <v>35.737000000000002</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>685</v>
+          </cell>
+          <cell r="B59">
+            <v>47.680999999999997</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>690</v>
+          </cell>
+          <cell r="B60">
+            <v>62.274999999999999</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>695</v>
+          </cell>
+          <cell r="B61">
+            <v>74.016000000000005</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>700</v>
+          </cell>
+          <cell r="B62">
+            <v>80.91</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>705</v>
+          </cell>
+          <cell r="B63">
+            <v>84.498999999999995</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>710</v>
+          </cell>
+          <cell r="B64">
+            <v>86.325000000000003</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>715</v>
+          </cell>
+          <cell r="B65">
+            <v>87.575999999999993</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>720</v>
+          </cell>
+          <cell r="B66">
+            <v>88.206000000000003</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>725</v>
+          </cell>
+          <cell r="B67">
+            <v>88.822000000000003</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>730</v>
+          </cell>
+          <cell r="B68">
+            <v>89.132000000000005</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>735</v>
+          </cell>
+          <cell r="B69">
+            <v>89.350999999999999</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>740</v>
+          </cell>
+          <cell r="B70">
+            <v>89.584999999999994</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>745</v>
+          </cell>
+          <cell r="B71">
+            <v>89.649000000000001</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>750</v>
+          </cell>
+          <cell r="B72">
+            <v>89.8</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>755</v>
+          </cell>
+          <cell r="B73">
+            <v>89.894000000000005</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>760</v>
+          </cell>
+          <cell r="B74">
+            <v>89.938999999999993</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>765</v>
+          </cell>
+          <cell r="B75">
+            <v>90.087000000000003</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>770</v>
+          </cell>
+          <cell r="B76">
+            <v>90.019000000000005</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>775</v>
+          </cell>
+          <cell r="B77">
+            <v>90.114000000000004</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>780</v>
+          </cell>
+          <cell r="B78">
+            <v>90.191000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1863,19 +3020,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A46D66-FEE2-4F93-94B6-B91EAD519ACF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +3043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>400</v>
       </c>
@@ -1897,7 +3054,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>405</v>
       </c>
@@ -1908,7 +3065,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>410</v>
       </c>
@@ -1919,7 +3076,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>415</v>
       </c>
@@ -1930,7 +3087,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>420</v>
       </c>
@@ -1941,7 +3098,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>425</v>
       </c>
@@ -1952,7 +3109,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>430</v>
       </c>
@@ -1963,7 +3120,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>435</v>
       </c>
@@ -1974,7 +3131,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>440</v>
       </c>
@@ -1985,7 +3142,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>445</v>
       </c>
@@ -1996,7 +3153,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>450</v>
       </c>
@@ -2007,7 +3164,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>455</v>
       </c>
@@ -2018,7 +3175,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>460</v>
       </c>
@@ -2029,7 +3186,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>465</v>
       </c>
@@ -2040,7 +3197,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>470</v>
       </c>
@@ -2051,7 +3208,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>475</v>
       </c>
@@ -2062,7 +3219,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>480</v>
       </c>
@@ -2073,7 +3230,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>485</v>
       </c>
@@ -2084,7 +3241,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>490</v>
       </c>
@@ -2095,7 +3252,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>495</v>
       </c>
@@ -2106,7 +3263,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>500</v>
       </c>
@@ -2117,7 +3274,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>505</v>
       </c>
@@ -2128,7 +3285,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>510</v>
       </c>
@@ -2139,7 +3296,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>515</v>
       </c>
@@ -2150,7 +3307,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>520</v>
       </c>
@@ -2161,7 +3318,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>525</v>
       </c>
@@ -2172,7 +3329,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>530</v>
       </c>
@@ -2183,7 +3340,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>535</v>
       </c>
@@ -2194,7 +3351,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>540</v>
       </c>
@@ -2205,7 +3362,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>545</v>
       </c>
@@ -2216,7 +3373,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>550</v>
       </c>
@@ -2227,7 +3384,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>555</v>
       </c>
@@ -2238,7 +3395,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>560</v>
       </c>
@@ -2249,7 +3406,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>565</v>
       </c>
@@ -2260,7 +3417,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>570</v>
       </c>
@@ -2271,7 +3428,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>575</v>
       </c>
@@ -2282,7 +3439,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>580</v>
       </c>
@@ -2293,7 +3450,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>585</v>
       </c>
@@ -2304,7 +3461,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>590</v>
       </c>
@@ -2315,7 +3472,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>595</v>
       </c>
@@ -2326,7 +3483,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>600</v>
       </c>
@@ -2337,7 +3494,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>605</v>
       </c>
@@ -2348,7 +3505,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>610</v>
       </c>
@@ -2359,7 +3516,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>615</v>
       </c>
@@ -2370,7 +3527,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>620</v>
       </c>
@@ -2381,7 +3538,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>625</v>
       </c>
@@ -2392,7 +3549,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>630</v>
       </c>
@@ -2403,7 +3560,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>635</v>
       </c>
@@ -2414,7 +3571,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>640</v>
       </c>
@@ -2425,7 +3582,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>645</v>
       </c>
@@ -2436,7 +3593,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>650</v>
       </c>
@@ -2447,7 +3604,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>655</v>
       </c>
@@ -2458,7 +3615,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>660</v>
       </c>
@@ -2469,7 +3626,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>665</v>
       </c>
@@ -2480,7 +3637,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>670</v>
       </c>
@@ -2491,7 +3648,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>675</v>
       </c>
@@ -2502,7 +3659,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>680</v>
       </c>
@@ -2513,7 +3670,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>685</v>
       </c>
@@ -2524,7 +3681,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>690</v>
       </c>
@@ -2535,7 +3692,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>695</v>
       </c>
@@ -2546,7 +3703,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>700</v>
       </c>
@@ -2557,7 +3714,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>705</v>
       </c>
@@ -2568,7 +3725,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>710</v>
       </c>
@@ -2579,7 +3736,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>715</v>
       </c>
@@ -2590,7 +3747,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>720</v>
       </c>
@@ -2601,7 +3758,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>725</v>
       </c>
@@ -2612,7 +3769,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>730</v>
       </c>
@@ -2623,7 +3780,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>735</v>
       </c>
@@ -2634,7 +3791,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>740</v>
       </c>
@@ -2645,7 +3802,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>745</v>
       </c>
@@ -2656,7 +3813,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>750</v>
       </c>
@@ -2667,7 +3824,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>755</v>
       </c>
@@ -2678,7 +3835,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>760</v>
       </c>
@@ -2689,7 +3846,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>765</v>
       </c>
@@ -2700,7 +3857,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>770</v>
       </c>
@@ -2711,7 +3868,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>775</v>
       </c>
@@ -2722,7 +3879,7 @@
         <v>60.781999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>780</v>
       </c>
@@ -2732,6 +3889,270 @@
       <c r="D78">
         <v>60.781999999999996</v>
       </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2749,9 +4170,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -2767,7 +4188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -2776,7 +4197,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>6</v>
       </c>
